--- a/biology/Médecine/Sho_Yano/Sho_Yano.xlsx
+++ b/biology/Médecine/Sho_Yano/Sho_Yano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sho Timothy Yano (矢野 祥, Yano Shō?) (né le 22 octobre 1990 à Portland en Oregon aux États-Unis) est un enfant prodige américain montrant un quotient intellectuel estimé à 200[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sho Timothy Yano (矢野 祥, Yano Shō?) (né le 22 octobre 1990 à Portland en Oregon aux États-Unis) est un enfant prodige américain montrant un quotient intellectuel estimé à 200.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son père, Katsura Yano, est japonais et sa mère, Kyung, est sud-coréenne[1].
-Sho Yano  aurait appris à lire à l'âge de 2 ans, à écrire à 3 ans, à jouer de la musique classique au piano à 4 ans et à composer à 5 ans[1]. Il a commencé ses études au Mirman School, école pour enfants prodiges de Los Angeles. Après avoir obtenu 1500 sur 1600 au SAT à l'âge de 8 ans[1],[2], il a été accepté à l'université Loyola de Chicago à 9 ans[1], où il a obtenu son diplôme summa cum laude à l'âge de 12 ans. Par la suite, il a été accepté au Pritzker School of Medicine de l'université de Chicago dans le Medical Scientist Training Program (MSTP), programme conçu pour les personnes qui veulent à la fois obtenir un MD et un PhD[1]. En 2009, il a obtenu un PhD en génétique moléculaire et biologie cellulaire, à l'âge de 18 ans[1],[3]. Il a entamé sa deuxième année en médecine à l'école médicale de l'université de Chicago en 2009[3], devenant ainsi, à 21 ans, la plus jeune personne à obtenir un MD de cette université[4].
-Selon Sho Yano, il doit son succès aux efforts de sa mère, qui a détecté ses facultés supérieures alors qu'il était tout jeune et qui l'a aidé et motivé en lui imposant un entraînement académique supplémentaire rigoureux. Sa mère l'a aussi instruit à la maison jusqu'à sa 12e année scolaire, croyant que les autres enfants du même âge ne portait pas autant d'intérêt à la formation académique[5].
-La sœur de Sho Yano, Sayuri (née en 1996), montre aussi les capacités d'un enfant prodige dans les matières académiques et en musique[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son père, Katsura Yano, est japonais et sa mère, Kyung, est sud-coréenne.
+Sho Yano  aurait appris à lire à l'âge de 2 ans, à écrire à 3 ans, à jouer de la musique classique au piano à 4 ans et à composer à 5 ans. Il a commencé ses études au Mirman School, école pour enfants prodiges de Los Angeles. Après avoir obtenu 1500 sur 1600 au SAT à l'âge de 8 ans il a été accepté à l'université Loyola de Chicago à 9 ans, où il a obtenu son diplôme summa cum laude à l'âge de 12 ans. Par la suite, il a été accepté au Pritzker School of Medicine de l'université de Chicago dans le Medical Scientist Training Program (MSTP), programme conçu pour les personnes qui veulent à la fois obtenir un MD et un PhD. En 2009, il a obtenu un PhD en génétique moléculaire et biologie cellulaire, à l'âge de 18 ans,. Il a entamé sa deuxième année en médecine à l'école médicale de l'université de Chicago en 2009, devenant ainsi, à 21 ans, la plus jeune personne à obtenir un MD de cette université.
+Selon Sho Yano, il doit son succès aux efforts de sa mère, qui a détecté ses facultés supérieures alors qu'il était tout jeune et qui l'a aidé et motivé en lui imposant un entraînement académique supplémentaire rigoureux. Sa mère l'a aussi instruit à la maison jusqu'à sa 12e année scolaire, croyant que les autres enfants du même âge ne portait pas autant d'intérêt à la formation académique.
+La sœur de Sho Yano, Sayuri (née en 1996), montre aussi les capacités d'un enfant prodige dans les matières académiques et en musique.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Sho T. Yano, Bahman Panbehi, Arpita Das et Howard M. Laten, Diaspora, a large family of Ty3-gypsy retrotransposons in Glycine max, is an envelope-less member of an endogenous plant retrovirus lineage, BMC Evolutionary Biology</t>
         </is>
